--- a/TestData/OneForAll/bulkEditOptions.xlsx
+++ b/TestData/OneForAll/bulkEditOptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\OneForAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA4AC0A-4587-401D-B4FF-F22B25258534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F510AF-487C-4D9A-BF89-8BE81DE229B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Wavename</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Event Script Args</t>
   </si>
   <si>
-    <t>Second Flow</t>
-  </si>
-  <si>
     <t>Allow FS Deletion (Yes / No)</t>
   </si>
   <si>
@@ -109,6 +106,15 @@
   </si>
   <si>
     <t>psp-MyLinSecondFlow-src1, psp-MyLinSecondFlow-src2</t>
+  </si>
+  <si>
+    <t>psp-MyWinSecondFlow-src1, psp-MyWinSecondFlow-src2</t>
+  </si>
+  <si>
+    <t>E:</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -488,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -527,10 +533,10 @@
         <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>18</v>
@@ -541,9 +547,8 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>29</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>1</v>
@@ -568,29 +573,49 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
         <v>25</v>
       </c>
-      <c r="U3" t="s">
-        <v>26</v>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
